--- a/main/ig/StructureDefinition-TDEBundleResultatReponseRechercheTraces.xlsx
+++ b/main/ig/StructureDefinition-TDEBundleResultatReponseRechercheTraces.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-05T08:18:27+00:00</t>
+    <t>2026-02-05T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-TDEBundleResultatReponseRechercheTraces.xlsx
+++ b/main/ig/StructureDefinition-TDEBundleResultatReponseRechercheTraces.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-05T08:19:06+00:00</t>
+    <t>2026-02-05T08:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-TDEBundleResultatReponseRechercheTraces.xlsx
+++ b/main/ig/StructureDefinition-TDEBundleResultatReponseRechercheTraces.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-05T08:43:04+00:00</t>
+    <t>2026-02-05T09:40:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
